--- a/Brasileirao_SerieA.xlsx
+++ b/Brasileirao_SerieA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE21DB47-1ECF-486C-8C12-7379BACC3125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94080B5-8038-4E17-B2C0-0E00C4510545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C503797C-99D0-42CC-872F-331D2CFEF598}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="25">
   <si>
     <t>Home</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>Ligue</t>
+  </si>
+  <si>
+    <t>Serie A Brasil</t>
   </si>
 </sst>
 </file>
@@ -249,527 +255,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -1107,2437 +593,2841 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA97874-691F-4438-80F4-565634BA4477}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
         <v>21</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
         <v>21</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
         <v>21</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
         <v>22</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
         <v>22</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2">
         <v>22</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
         <v>22</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
         <v>22</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
         <v>22</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
         <v>22</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
         <v>22</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2">
         <v>22</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2">
         <v>23</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2">
         <v>23</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
         <v>23</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="2">
         <v>23</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2">
         <v>23</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2">
         <v>23</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2">
         <v>23</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="2">
         <v>23</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
         <v>23</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
         <v>23</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>24</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2">
+        <v>24</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>24</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="2">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>24</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2">
+        <v>24</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>24</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2">
+        <v>24</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>24</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="2">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>24</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>24</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>24</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>24</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2">
+        <v>24</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="2">
         <v>25</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="2">
         <v>25</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="2">
         <v>25</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2">
         <v>25</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="2">
         <v>25</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="2">
         <v>25</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="2">
         <v>25</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2">
         <v>25</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="2">
         <v>25</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="2">
         <v>25</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2">
         <v>26</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
         <v>26</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2">
         <v>26</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="2">
         <v>26</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="2">
         <v>26</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2">
         <v>26</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2">
         <v>26</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="2">
         <v>26</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2">
         <v>26</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2">
         <v>26</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="2">
         <v>27</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="2">
         <v>27</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="2">
         <v>27</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2">
         <v>27</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2">
         <v>27</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="2">
         <v>27</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="2">
         <v>27</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="2">
         <v>27</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="2">
         <v>27</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="2">
         <v>27</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="2">
         <v>28</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2">
         <v>28</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="2">
         <v>28</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="2">
         <v>28</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="2">
         <v>28</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="2">
         <v>28</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="2">
         <v>28</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="2">
         <v>28</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="2">
         <v>28</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="2">
         <v>28</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="2">
         <v>29</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2">
         <v>29</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
         <v>29</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="2">
         <v>29</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="2">
         <v>29</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="2">
         <v>29</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="2">
         <v>29</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="2">
         <v>29</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="2">
         <v>29</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="2">
         <v>29</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="2">
         <v>30</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="2">
         <v>30</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="2">
         <v>30</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="2">
         <v>30</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="2">
         <v>30</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="2">
         <v>30</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="2">
         <v>30</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2">
         <v>30</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" s="2">
         <v>30</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2">
         <v>30</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="2">
         <v>31</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2">
         <v>31</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="2">
         <v>31</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="2">
         <v>31</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="2">
         <v>31</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="2">
         <v>31</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="2">
         <v>31</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="2">
         <v>31</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="2">
         <v>31</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="2">
         <v>31</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="2">
         <v>32</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="2">
         <v>32</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="2">
         <v>32</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="2">
         <v>32</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="2">
         <v>32</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="2">
         <v>32</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="2">
         <v>32</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="2">
         <v>32</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2">
         <v>32</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="2">
         <v>32</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="2">
         <v>33</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="2">
         <v>33</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="2">
         <v>33</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="2">
         <v>33</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="2">
         <v>33</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="2">
         <v>33</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="2">
         <v>33</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="2">
         <v>33</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="2">
         <v>33</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="2">
         <v>33</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="2">
         <v>34</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="2">
         <v>34</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="2">
         <v>34</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="2">
         <v>34</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="2">
         <v>34</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="2">
         <v>34</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="2">
         <v>34</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="2">
         <v>34</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="2">
         <v>34</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2">
         <v>34</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="2">
         <v>35</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="2">
         <v>35</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" s="2">
         <v>35</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="2">
         <v>35</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="2">
         <v>35</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="2">
         <v>35</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="2">
         <v>35</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="2">
         <v>35</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" s="2">
         <v>35</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" s="2">
         <v>35</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" s="2">
         <v>36</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" s="2">
         <v>36</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="2">
         <v>36</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="2">
         <v>36</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="2">
         <v>36</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="2">
         <v>36</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="2">
         <v>36</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="2">
         <v>36</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="2">
         <v>36</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="2">
         <v>36</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="2">
         <v>37</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" s="2">
         <v>37</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" s="2">
         <v>37</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="2">
         <v>37</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>24</v>
+      </c>
+      <c r="B186" s="2">
         <v>37</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="2">
         <v>37</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="2">
         <v>37</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="2">
         <v>37</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190" s="2">
         <v>37</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="2">
         <v>37</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="2">
         <v>38</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="2">
         <v>38</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="2">
         <v>38</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" s="2">
         <v>38</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="2">
         <v>38</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="2">
         <v>38</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="2">
         <v>38</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="2">
         <v>38</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" s="2">
         <v>38</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" s="3">
         <v>38</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B200">
-    <cfRule type="containsBlanks" dxfId="41" priority="63">
-      <formula>LEN(TRIM(A2))=0</formula>
+  <conditionalFormatting sqref="B2:D201">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C200">
-    <cfRule type="containsBlanks" dxfId="40" priority="62">
-      <formula>LEN(TRIM(C2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B21">
-    <cfRule type="containsBlanks" dxfId="39" priority="61">
-      <formula>LEN(TRIM(B12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C21">
-    <cfRule type="containsBlanks" dxfId="38" priority="60">
+  <conditionalFormatting sqref="C12:C200">
+    <cfRule type="containsBlanks" dxfId="0" priority="25">
       <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B31">
-    <cfRule type="containsBlanks" dxfId="37" priority="59">
-      <formula>LEN(TRIM(B22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C31">
-    <cfRule type="containsBlanks" dxfId="36" priority="58">
-      <formula>LEN(TRIM(C22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B41">
-    <cfRule type="containsBlanks" dxfId="35" priority="57">
-      <formula>LEN(TRIM(B32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C41">
-    <cfRule type="containsBlanks" dxfId="34" priority="56">
-      <formula>LEN(TRIM(C32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B51">
-    <cfRule type="containsBlanks" dxfId="33" priority="55">
-      <formula>LEN(TRIM(B42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C51">
-    <cfRule type="containsBlanks" dxfId="32" priority="54">
-      <formula>LEN(TRIM(C42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B61">
-    <cfRule type="containsBlanks" dxfId="31" priority="53">
-      <formula>LEN(TRIM(B52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C61">
-    <cfRule type="containsBlanks" dxfId="30" priority="52">
-      <formula>LEN(TRIM(C52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:B71">
-    <cfRule type="containsBlanks" dxfId="29" priority="51">
-      <formula>LEN(TRIM(B62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C71">
-    <cfRule type="containsBlanks" dxfId="28" priority="50">
-      <formula>LEN(TRIM(C62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B81">
-    <cfRule type="containsBlanks" dxfId="27" priority="49">
-      <formula>LEN(TRIM(B72))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C81">
-    <cfRule type="containsBlanks" dxfId="26" priority="48">
-      <formula>LEN(TRIM(C72))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B91">
-    <cfRule type="containsBlanks" dxfId="25" priority="47">
-      <formula>LEN(TRIM(B82))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
-    <cfRule type="containsBlanks" dxfId="24" priority="46">
-      <formula>LEN(TRIM(C82))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B101">
-    <cfRule type="containsBlanks" dxfId="23" priority="45">
-      <formula>LEN(TRIM(B92))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C101">
-    <cfRule type="containsBlanks" dxfId="22" priority="44">
-      <formula>LEN(TRIM(C92))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B111">
-    <cfRule type="containsBlanks" dxfId="21" priority="43">
-      <formula>LEN(TRIM(B102))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102:C111">
-    <cfRule type="containsBlanks" dxfId="20" priority="42">
-      <formula>LEN(TRIM(C102))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B121">
-    <cfRule type="containsBlanks" dxfId="19" priority="41">
-      <formula>LEN(TRIM(B112))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C121">
-    <cfRule type="containsBlanks" dxfId="18" priority="40">
-      <formula>LEN(TRIM(C112))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:B131">
-    <cfRule type="containsBlanks" dxfId="17" priority="39">
-      <formula>LEN(TRIM(B122))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C131">
-    <cfRule type="containsBlanks" dxfId="16" priority="38">
-      <formula>LEN(TRIM(C122))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132:B141">
-    <cfRule type="containsBlanks" dxfId="15" priority="37">
-      <formula>LEN(TRIM(B132))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132:C141">
-    <cfRule type="containsBlanks" dxfId="14" priority="36">
-      <formula>LEN(TRIM(C132))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B151">
-    <cfRule type="containsBlanks" dxfId="13" priority="35">
-      <formula>LEN(TRIM(B142))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142:C151">
-    <cfRule type="containsBlanks" dxfId="12" priority="34">
-      <formula>LEN(TRIM(C142))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B161">
-    <cfRule type="containsBlanks" dxfId="11" priority="33">
-      <formula>LEN(TRIM(B152))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152:C161">
-    <cfRule type="containsBlanks" dxfId="10" priority="32">
-      <formula>LEN(TRIM(C152))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:B171">
-    <cfRule type="containsBlanks" dxfId="9" priority="31">
-      <formula>LEN(TRIM(B162))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162:C171">
-    <cfRule type="containsBlanks" dxfId="8" priority="30">
-      <formula>LEN(TRIM(C162))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:B181">
-    <cfRule type="containsBlanks" dxfId="7" priority="29">
-      <formula>LEN(TRIM(B172))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C181">
-    <cfRule type="containsBlanks" dxfId="6" priority="28">
-      <formula>LEN(TRIM(C172))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B182:B191">
-    <cfRule type="containsBlanks" dxfId="5" priority="27">
-      <formula>LEN(TRIM(B182))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182:C191">
-    <cfRule type="containsBlanks" dxfId="4" priority="26">
-      <formula>LEN(TRIM(C182))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:B200">
-    <cfRule type="containsBlanks" dxfId="3" priority="25">
-      <formula>LEN(TRIM(B192))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192:C200">
-    <cfRule type="containsBlanks" dxfId="2" priority="24">
-      <formula>LEN(TRIM(C192))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A201))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B201:C201">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Brasileirao_SerieA.xlsx
+++ b/Brasileirao_SerieA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94080B5-8038-4E17-B2C0-0E00C4510545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBB637-8A55-4611-BD9E-AA8FBE0FA3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C503797C-99D0-42CC-872F-331D2CFEF598}"/>
   </bookViews>
@@ -107,10 +107,10 @@
     <t>Round</t>
   </si>
   <si>
-    <t>Ligue</t>
+    <t>Serie A Brasil</t>
   </si>
   <si>
-    <t>Serie A Brasil</t>
+    <t>League</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A201"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,8 +606,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>19</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>19</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>19</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>19</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>19</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>19</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>19</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>19</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>19</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>19</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>20</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>20</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>20</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>20</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>20</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>20</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>20</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>20</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>21</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>21</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>21</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>21</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>21</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <v>21</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <v>21</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>22</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>22</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
         <v>22</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <v>22</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <v>22</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <v>22</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>22</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>22</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>22</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
         <v>22</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>23</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <v>23</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2">
         <v>23</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2">
         <v>23</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2">
         <v>23</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2">
         <v>23</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2">
         <v>23</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2">
         <v>23</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
         <v>23</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
         <v>23</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2">
         <v>24</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
         <v>24</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
         <v>24</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2">
         <v>24</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2">
         <v>24</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
         <v>24</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2">
         <v>24</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2">
         <v>24</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
         <v>24</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2">
         <v>24</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
         <v>25</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2">
         <v>25</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2">
         <v>25</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
         <v>25</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2">
         <v>25</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2">
         <v>25</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="2">
         <v>25</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
         <v>25</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2">
         <v>25</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>25</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2">
         <v>26</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2">
         <v>26</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2">
         <v>26</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="2">
         <v>26</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="2">
         <v>26</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2">
         <v>26</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="2">
         <v>26</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="2">
         <v>26</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2">
         <v>26</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2">
         <v>26</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="2">
         <v>27</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83" s="2">
         <v>27</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
         <v>27</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
         <v>27</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2">
         <v>27</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" s="2">
         <v>27</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="2">
         <v>27</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="2">
         <v>27</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="2">
         <v>27</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2">
         <v>27</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
         <v>28</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <v>28</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <v>28</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2">
         <v>28</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="2">
         <v>28</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
         <v>28</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <v>28</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <v>28</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="2">
         <v>28</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="2">
         <v>28</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="2">
         <v>29</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="2">
         <v>29</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="2">
         <v>29</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="2">
         <v>29</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="2">
         <v>29</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="2">
         <v>29</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="2">
         <v>29</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="2">
         <v>29</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="2">
         <v>29</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" s="2">
         <v>29</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" s="2">
         <v>30</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" s="2">
         <v>30</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="2">
         <v>30</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115" s="2">
         <v>30</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="2">
         <v>30</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="2">
         <v>30</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="2">
         <v>30</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="2">
         <v>30</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="2">
         <v>30</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="2">
         <v>30</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="2">
         <v>31</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="2">
         <v>31</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="2">
         <v>31</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="2">
         <v>31</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" s="2">
         <v>31</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" s="2">
         <v>31</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="2">
         <v>31</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B129" s="2">
         <v>31</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B130" s="2">
         <v>31</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131" s="2">
         <v>31</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B132" s="2">
         <v>32</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133" s="2">
         <v>32</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B134" s="2">
         <v>32</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B135" s="2">
         <v>32</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B136" s="2">
         <v>32</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137" s="2">
         <v>32</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138" s="2">
         <v>32</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139" s="2">
         <v>32</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B140" s="2">
         <v>32</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B141" s="2">
         <v>32</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142" s="2">
         <v>33</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143" s="2">
         <v>33</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144" s="2">
         <v>33</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="2">
         <v>33</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B146" s="2">
         <v>33</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147" s="2">
         <v>33</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148" s="2">
         <v>33</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B149" s="2">
         <v>33</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B150" s="2">
         <v>33</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B151" s="2">
         <v>33</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" s="2">
         <v>34</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B153" s="2">
         <v>34</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B154" s="2">
         <v>34</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155" s="2">
         <v>34</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B156" s="2">
         <v>34</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B157" s="2">
         <v>34</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="2">
         <v>34</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159" s="2">
         <v>34</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160" s="2">
         <v>34</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161" s="2">
         <v>34</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162" s="2">
         <v>35</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B163" s="2">
         <v>35</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164" s="2">
         <v>35</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165" s="2">
         <v>35</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B166" s="2">
         <v>35</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B167" s="2">
         <v>35</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B168" s="2">
         <v>35</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B169" s="2">
         <v>35</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170" s="2">
         <v>35</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B171" s="2">
         <v>35</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B172" s="2">
         <v>36</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B173" s="2">
         <v>36</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174" s="2">
         <v>36</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B175" s="2">
         <v>36</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176" s="2">
         <v>36</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B177" s="2">
         <v>36</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B178" s="2">
         <v>36</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B179" s="2">
         <v>36</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B180" s="2">
         <v>36</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B181" s="2">
         <v>36</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B182" s="2">
         <v>37</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B183" s="2">
         <v>37</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B184" s="2">
         <v>37</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B185" s="2">
         <v>37</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B186" s="2">
         <v>37</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B187" s="2">
         <v>37</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B188" s="2">
         <v>37</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B189" s="2">
         <v>37</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190" s="2">
         <v>37</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B191" s="2">
         <v>37</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192" s="2">
         <v>38</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B193" s="2">
         <v>38</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194" s="2">
         <v>38</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B195" s="2">
         <v>38</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B196" s="2">
         <v>38</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B197" s="2">
         <v>38</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B198" s="2">
         <v>38</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B199" s="2">
         <v>38</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B200" s="2">
         <v>38</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B201" s="3">
         <v>38</v>

--- a/Brasileirao_SerieA.xlsx
+++ b/Brasileirao_SerieA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBB637-8A55-4611-BD9E-AA8FBE0FA3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A5530-D059-467C-B3C1-39B82E3C7DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C503797C-99D0-42CC-872F-331D2CFEF598}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="26">
   <si>
     <t>Home</t>
   </si>
@@ -112,12 +112,15 @@
   <si>
     <t>League</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +149,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -232,12 +252,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,10 +302,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0719DC24-B1E3-4BA7-B51D-CF804A14D45C}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -593,2841 +663,3445 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA97874-691F-4438-80F4-565634BA4477}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>45144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>45144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>45144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>45144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>45144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>45151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>45151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>45151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>45151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>45158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>45158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>45158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>45158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>45158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>45158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>45158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>45158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>45158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
         <v>21</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
         <v>22</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>45165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
         <v>22</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>45165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
         <v>22</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>45165</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
         <v>22</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>45165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
         <v>22</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>45165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
         <v>22</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>45165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
         <v>22</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>45165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
         <v>22</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>45165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>45165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
         <v>22</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="2">
-        <v>23</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="2">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>45172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="2">
-        <v>23</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2">
-        <v>23</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="2">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2">
-        <v>23</v>
-      </c>
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>45172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="2">
-        <v>23</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2">
-        <v>23</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>45172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2">
-        <v>23</v>
-      </c>
-      <c r="C51" s="2" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>45172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>45182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
         <v>24</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2">
         <v>24</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>45182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
         <v>24</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
         <v>24</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>45182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
         <v>24</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
         <v>24</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>45182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
         <v>24</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
         <v>24</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>45182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2">
         <v>24</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>45182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2">
         <v>24</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>45189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2">
         <v>25</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2">
         <v>25</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>45189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2">
         <v>25</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2">
         <v>25</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>45189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2">
         <v>25</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2">
         <v>25</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>45189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2">
         <v>25</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
         <v>25</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>45189</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2">
         <v>25</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>45189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2">
         <v>25</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2">
         <v>26</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
         <v>26</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
         <v>26</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2">
         <v>26</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2">
         <v>26</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2">
         <v>26</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2">
         <v>26</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2">
         <v>26</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
         <v>26</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>45200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2">
         <v>26</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2">
         <v>27</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>45207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2">
         <v>27</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>45207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2">
         <v>27</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>45207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2">
         <v>27</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>45207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2">
         <v>27</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>45207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
         <v>27</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>45207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2">
         <v>27</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>45207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2">
         <v>27</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>45207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2">
         <v>27</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>45207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2">
         <v>27</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>45217</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2">
         <v>28</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2">
         <v>28</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>45217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2">
         <v>28</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2">
         <v>28</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>45217</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2">
         <v>28</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2">
         <v>28</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>45217</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="2">
         <v>28</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="2">
         <v>28</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>45217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="2">
         <v>28</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>45217</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2">
         <v>28</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>45221</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="2">
         <v>29</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>45221</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="2">
         <v>29</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>45221</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="2">
         <v>29</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>45221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2">
         <v>29</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>45221</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="2">
         <v>29</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>45221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2">
         <v>29</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>45221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2">
         <v>29</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2">
         <v>29</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>45221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2">
         <v>29</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>45221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2">
         <v>29</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2">
         <v>30</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2">
         <v>30</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>45224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2">
         <v>30</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2">
         <v>30</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>45224</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2">
         <v>30</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="2">
         <v>30</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>45224</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2">
         <v>30</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="2">
         <v>30</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>45224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2">
         <v>30</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>45224</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2">
         <v>30</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>45228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="2">
         <v>31</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>45228</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="2">
         <v>31</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>45228</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2">
         <v>31</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>45228</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2">
         <v>31</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>45228</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2">
         <v>31</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>45228</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="2">
         <v>31</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>45228</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2">
         <v>31</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>45228</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="2">
         <v>31</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>45228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="2">
         <v>31</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>45228</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="2">
         <v>31</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="2">
         <v>32</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2">
         <v>32</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>45231</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="2">
         <v>32</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="2">
         <v>32</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>45231</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="2">
         <v>32</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="2">
         <v>32</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>45231</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="2">
         <v>32</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="2">
         <v>32</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>45231</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="2">
         <v>32</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>45231</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="2">
         <v>32</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="2">
         <v>33</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="2">
         <v>33</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>45235</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="2">
         <v>33</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2">
         <v>33</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>45235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="2">
         <v>33</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="2">
         <v>33</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>45235</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="2">
         <v>33</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="2">
         <v>33</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" s="2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>45235</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="2">
         <v>33</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>45235</v>
+      </c>
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="2">
         <v>33</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>45242</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="2">
         <v>34</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" s="2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2">
         <v>34</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>45242</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="2">
         <v>34</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2">
         <v>34</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>45242</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2">
         <v>34</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="2">
         <v>34</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>45242</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="2">
         <v>34</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="2">
         <v>34</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>45242</v>
+      </c>
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="2">
         <v>34</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="8">
+        <v>45242</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2">
         <v>34</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>45252</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2">
         <v>35</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B163" s="2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>45252</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="2">
         <v>35</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="2">
         <v>35</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45252</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2">
         <v>35</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="2">
         <v>35</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>45252</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="2">
         <v>35</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" s="2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="2">
         <v>35</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" s="2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>45252</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="2">
         <v>35</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" s="2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="2">
         <v>35</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" s="2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>45252</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="2">
         <v>35</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="2">
         <v>36</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" s="2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45256</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="2">
         <v>36</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="2">
         <v>36</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>45256</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="2">
         <v>36</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="2">
         <v>36</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>45256</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="2">
         <v>36</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" s="2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="2">
         <v>36</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>45256</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="2">
         <v>36</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" s="2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="2">
         <v>36</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" s="2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>45256</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="2">
         <v>36</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>45259</v>
+      </c>
+      <c r="B182" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="2">
         <v>37</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" s="2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>45259</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="2">
         <v>37</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" s="2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="2">
         <v>37</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" s="2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45259</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="2">
         <v>37</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" s="2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="2">
         <v>37</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" s="2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>45259</v>
+      </c>
+      <c r="B187" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="2">
         <v>37</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="2">
         <v>37</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45259</v>
+      </c>
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="2">
         <v>37</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>23</v>
-      </c>
-      <c r="B190" s="2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="2">
         <v>37</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>23</v>
-      </c>
-      <c r="B191" s="2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="8">
+        <v>45259</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="2">
         <v>37</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>23</v>
-      </c>
-      <c r="B192" s="2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>45263</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="2">
         <v>38</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>23</v>
-      </c>
-      <c r="B193" s="2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>45263</v>
+      </c>
+      <c r="B193" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="2">
         <v>38</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" s="2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="2">
         <v>38</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>23</v>
-      </c>
-      <c r="B195" s="2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>45263</v>
+      </c>
+      <c r="B195" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="2">
         <v>38</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>23</v>
-      </c>
-      <c r="B196" s="2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="2">
         <v>38</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>23</v>
-      </c>
-      <c r="B197" s="2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>45263</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="2">
         <v>38</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" s="2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="2">
         <v>38</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" s="2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>45263</v>
+      </c>
+      <c r="B199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="2">
         <v>38</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>23</v>
-      </c>
-      <c r="B200" s="2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>45263</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="2">
         <v>38</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" s="3">
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="8">
+        <v>45263</v>
+      </c>
+      <c r="B201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="3">
         <v>38</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D201">
+  <conditionalFormatting sqref="C2:E201">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(B2))=0</formula>
+      <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C200">
+  <conditionalFormatting sqref="D12:D200">
     <cfRule type="containsBlanks" dxfId="0" priority="25">
-      <formula>LEN(TRIM(C12))=0</formula>
+      <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
